--- a/SolarCalc.xlsx
+++ b/SolarCalc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CFDC1C1-95CE-4407-9253-A2FF79EDF8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF28CED3-6448-406C-AEC7-90594BBE0A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9489CB1-F5AB-4F83-ACEB-AE5709EAC248}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="26655" windowHeight="13950" xr2:uid="{B9489CB1-F5AB-4F83-ACEB-AE5709EAC248}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
   <si>
     <t>Sizing Your Solar System Calculator</t>
   </si>
@@ -330,13 +330,115 @@
   </si>
   <si>
     <t>Watts * 1.3</t>
+  </si>
+  <si>
+    <t>Amperage Temperature Correction</t>
+  </si>
+  <si>
+    <t>Use tables at right to get values for Temperature Correction</t>
+  </si>
+  <si>
+    <t>Find AWG wire size, and temperature rating of wire that you plan to use</t>
+  </si>
+  <si>
+    <t>Enter Amp rating into Spreadsheet cell:</t>
+  </si>
+  <si>
+    <t>Amp Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unless specifically permitted in Section</t>
+  </si>
+  <si>
+    <t>240.4(E) through (G), the overcurrent</t>
+  </si>
+  <si>
+    <t>protection shall not exceed 15 amperes</t>
+  </si>
+  <si>
+    <t>for 14 AWG, 20 amperes for 12 AWG, and</t>
+  </si>
+  <si>
+    <t>30 amperes for 10 AWG copper; or 15</t>
+  </si>
+  <si>
+    <t>amperes for 12 AWG and 25 amoeres for</t>
+  </si>
+  <si>
+    <t>10 AWG aluminum after any correction</t>
+  </si>
+  <si>
+    <t>factors Tor ambient temperature and</t>
+  </si>
+  <si>
+    <t>number of conductors have been applied.</t>
+  </si>
+  <si>
+    <t>Temperture rating of Conductor  in C from table</t>
+  </si>
+  <si>
+    <t>StandardTemperature in C 30</t>
+  </si>
+  <si>
+    <t>Actual Temperture in C</t>
+  </si>
+  <si>
+    <t>Example uses 2 AWG at 90C</t>
+  </si>
+  <si>
+    <t>Corrected Amperage</t>
+  </si>
+  <si>
+    <t>Voltage Drop between Solar Panels and Charge Controller Wire Size Calculation</t>
+  </si>
+  <si>
+    <t>You will need your Vmpp and your Impp data from your solar panels</t>
+  </si>
+  <si>
+    <t>This calculator will give you a 1% voltage drop wire size in mm2.  Use the included chart conversion to determine wire AWG</t>
+  </si>
+  <si>
+    <t>Resistance for both Copper and Aluminum wire,  Check your solar panels and wires.</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>ohms * mm2/m</t>
+  </si>
+  <si>
+    <t>Length of cable in meters</t>
+  </si>
+  <si>
+    <t>Nominal Current in cable Imp</t>
+  </si>
+  <si>
+    <t>Cross section Aluminum</t>
+  </si>
+  <si>
+    <t>Cross section of Copper</t>
+  </si>
+  <si>
+    <t>Use table to right to find AWG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 AWG </t>
+  </si>
+  <si>
+    <t>6 AWG</t>
+  </si>
+  <si>
+    <t>Open Circuit voltage  Vmpp (of panels wired in series)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +502,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -433,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -444,9 +560,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,6 +579,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>570076</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>173403</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3C9101-A4E9-DB0E-39DC-F29B42864D20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="29470350"/>
+          <a:ext cx="7685251" cy="8574453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>581659</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>115259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC6C18-C03D-E314-84EC-6C9B3A9777BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16202025" y="29403675"/>
+          <a:ext cx="4544059" cy="6868484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>181596</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>124869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AAD062-4A65-5E96-62B3-A4D7FABE24B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039225" y="39243000"/>
+          <a:ext cx="4448796" cy="7478169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -761,15 +1033,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5521C2-EBA4-411A-A6F9-1C17707E8C2C}">
-  <dimension ref="B2:R128"/>
+  <dimension ref="B2:R198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1426,7 +1698,7 @@
       <c r="D64" t="s">
         <v>48</v>
       </c>
-      <c r="R64" s="10">
+      <c r="R64" s="7">
         <f>SUM(I63:R63)</f>
         <v>771</v>
       </c>
@@ -1471,7 +1743,7 @@
       <c r="B76" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="11" t="s">
         <v>52</v>
       </c>
       <c r="J76" s="7">
@@ -1661,7 +1933,7 @@
         <v>78</v>
       </c>
       <c r="K113" s="4"/>
-      <c r="O113" s="11"/>
+      <c r="O113" s="10"/>
     </row>
     <row r="115" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B115" s="4" t="s">
@@ -1761,8 +2033,215 @@
         <v>5.0621212121212134</v>
       </c>
     </row>
+    <row r="132" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C132" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C133" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C134" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C135" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C137" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C138" s="7">
+        <v>130</v>
+      </c>
+      <c r="E138" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>113</v>
+      </c>
+      <c r="G140" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C141" s="7">
+        <v>30</v>
+      </c>
+      <c r="G141" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C144" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C145" s="7">
+        <f>C138*SQRT((E138-G141)/(E138-C141))</f>
+        <v>118.673220792786</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B178" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B179" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B180" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B182" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B184" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C184" s="7">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B186" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C186" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="C188" s="7">
+        <v>25</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="C190" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="C192" s="7">
+        <v>35</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B194" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C194" s="7">
+        <f>(C186*2*C188*C190)/(0.01*C192)</f>
+        <v>21.542857142857141</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B196" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C196" s="7">
+        <f>(C184*2*C188*C190)/(0.01*C192)</f>
+        <v>14.168571428571425</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B198" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>